--- a/Doc/LOG/LogTemplate(Lorenzo_Salvi).xlsx
+++ b/Doc/LOG/LogTemplate(Lorenzo_Salvi).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookair/Desktop/Ingegneria_Software/progetto/progetto_2018_2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorS_93/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Ingegneria_Software/progetto/progetto_2018_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6450E7-9514-E74A-9FE2-52372122BF04}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7382D2B7-FC01-2B4E-A296-911CD8127386}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="107">
   <si>
     <t>Personal Journal</t>
   </si>
@@ -351,6 +351,72 @@
   </si>
   <si>
     <t>Explain how to FRs and FNRs are satisfied by design</t>
+  </si>
+  <si>
+    <t>Deliverable D2 Review</t>
+  </si>
+  <si>
+    <t>Review Deliverable D2</t>
+  </si>
+  <si>
+    <t>Challenging Task e Ristrutturazione Scenari</t>
+  </si>
+  <si>
+    <t>Detail Scenarios</t>
+  </si>
+  <si>
+    <t>Ristrurazione FR e Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Use Cases Review</t>
+  </si>
+  <si>
+    <t>Ristrutturazione Component Diagram</t>
+  </si>
+  <si>
+    <t>Review Component Diagram</t>
+  </si>
+  <si>
+    <t>Testing Prototipo</t>
+  </si>
+  <si>
+    <t>Testing Software</t>
+  </si>
+  <si>
+    <t>1h 30min</t>
+  </si>
+  <si>
+    <t>Challenging Task e Ristrutturazione Diagramma E-R</t>
+  </si>
+  <si>
+    <t>Review E-R Model</t>
+  </si>
+  <si>
+    <t>Ristrutturazione GUI Requirements FR e Decision Design</t>
+  </si>
+  <si>
+    <t>Review Deliverable</t>
+  </si>
+  <si>
+    <t>40 min</t>
+  </si>
+  <si>
+    <t>Descrizione Class Diagram</t>
+  </si>
+  <si>
+    <t>Ristrutturazione Class Diagram</t>
+  </si>
+  <si>
+    <t>Class Diagram Review</t>
+  </si>
+  <si>
+    <t>Class Diagram Description</t>
+  </si>
+  <si>
+    <t>Descrizione Appendice prototipo</t>
+  </si>
+  <si>
+    <t>Appendix. Prototype</t>
   </si>
 </sst>
 </file>
@@ -427,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -671,11 +737,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -756,6 +837,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1917,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV43"/>
+  <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2764,32 +2851,322 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:256" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:256" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:256" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+    <row r="41" spans="1:256" ht="28" x14ac:dyDescent="0.15">
+      <c r="A41" s="18">
+        <v>1</v>
+      </c>
+      <c r="B41" s="18">
+        <v>7</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:256" ht="28" x14ac:dyDescent="0.15">
+      <c r="A42" s="18">
+        <v>1</v>
+      </c>
+      <c r="B42" s="18">
+        <v>7</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:256" ht="28" x14ac:dyDescent="0.15">
+      <c r="A43" s="18">
+        <v>1</v>
+      </c>
+      <c r="B43" s="18">
+        <v>8</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:256" ht="28" x14ac:dyDescent="0.15">
+      <c r="A44" s="18">
+        <v>1</v>
+      </c>
+      <c r="B44" s="18">
+        <v>9</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:256" ht="28" x14ac:dyDescent="0.15">
+      <c r="A45" s="18">
+        <v>1</v>
+      </c>
+      <c r="B45" s="18">
+        <v>10</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:256" ht="42" x14ac:dyDescent="0.15">
+      <c r="A46" s="18">
+        <v>1</v>
+      </c>
+      <c r="B46" s="18">
+        <v>10</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:256" ht="42" x14ac:dyDescent="0.15">
+      <c r="A47" s="18">
+        <v>1</v>
+      </c>
+      <c r="B47" s="18">
+        <v>14</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:256" ht="42" x14ac:dyDescent="0.15">
+      <c r="A48" s="18">
+        <v>1</v>
+      </c>
+      <c r="B48" s="18">
+        <v>15</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A49" s="18">
+        <v>1</v>
+      </c>
+      <c r="B49" s="18">
+        <v>15</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A50" s="18">
+        <v>1</v>
+      </c>
+      <c r="B50" s="18">
+        <v>16</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A51" s="18">
+        <v>1</v>
+      </c>
+      <c r="B51" s="18">
+        <v>16</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+      <c r="A52" s="18">
+        <v>1</v>
+      </c>
+      <c r="B52" s="18">
+        <v>17</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A53" s="34">
+        <v>1</v>
+      </c>
+      <c r="B53" s="34">
+        <v>17</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
